--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H2">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I2">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J2">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>4.350129761847937</v>
+        <v>4.750193617408001</v>
       </c>
       <c r="R2">
-        <v>4.350129761847937</v>
+        <v>19.000774469632</v>
       </c>
       <c r="S2">
-        <v>0.0002917035343049557</v>
+        <v>0.0002674835890604384</v>
       </c>
       <c r="T2">
-        <v>0.0002917035343049557</v>
+        <v>0.0001444141406974255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H3">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I3">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J3">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>635.1274403303755</v>
+        <v>0.4256108880213333</v>
       </c>
       <c r="R3">
-        <v>635.1274403303755</v>
+        <v>2.553665328128</v>
       </c>
       <c r="S3">
-        <v>0.04258928565839565</v>
+        <v>2.396616581141947E-05</v>
       </c>
       <c r="T3">
-        <v>0.04258928565839565</v>
+        <v>1.940896591240666E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H4">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I4">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J4">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>1040.629820141381</v>
+        <v>739.5048994172586</v>
       </c>
       <c r="R4">
-        <v>1040.629820141381</v>
+        <v>4437.029396503552</v>
       </c>
       <c r="S4">
-        <v>0.06978076817400974</v>
+        <v>0.04164154991472573</v>
       </c>
       <c r="T4">
-        <v>0.06978076817400974</v>
+        <v>0.03372335104389495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H5">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I5">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J5">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>8.433081623643298</v>
+        <v>1061.031234620928</v>
       </c>
       <c r="R5">
-        <v>8.433081623643298</v>
+        <v>6366.187407725569</v>
       </c>
       <c r="S5">
-        <v>0.0005654911116154688</v>
+        <v>0.05974671047124547</v>
       </c>
       <c r="T5">
-        <v>0.0005654911116154688</v>
+        <v>0.04838579003581346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H6">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I6">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J6">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>20.28748505381916</v>
+        <v>9.189749529258668</v>
       </c>
       <c r="R6">
-        <v>20.28748505381916</v>
+        <v>55.138497175552</v>
       </c>
       <c r="S6">
-        <v>0.001360403348024284</v>
+        <v>0.0005174751567271647</v>
       </c>
       <c r="T6">
-        <v>0.001360403348024284</v>
+        <v>0.0004190765329950778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.1949520906659</v>
+        <v>14.972416</v>
       </c>
       <c r="H7">
-        <v>38.1949520906659</v>
+        <v>29.944832</v>
       </c>
       <c r="I7">
-        <v>0.2961483647282326</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J7">
-        <v>0.2961483647282326</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>11.242780481087</v>
+        <v>20.750952579328</v>
       </c>
       <c r="R7">
-        <v>11.242780481087</v>
+        <v>83.003810317312</v>
       </c>
       <c r="S7">
-        <v>0.0007538990745771895</v>
+        <v>0.001168486954300261</v>
       </c>
       <c r="T7">
-        <v>0.0007538990745771895</v>
+        <v>0.0006308650187256747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J8">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>1641.467905572492</v>
+        <v>12.82158853659467</v>
       </c>
       <c r="R8">
-        <v>1641.467905572492</v>
+        <v>76.92953121956799</v>
       </c>
       <c r="S8">
-        <v>0.1100707371313552</v>
+        <v>0.0007219841537945348</v>
       </c>
       <c r="T8">
-        <v>0.1100707371313552</v>
+        <v>0.0005846978586628552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J9">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>2689.476698495681</v>
+        <v>1.148796895963555</v>
       </c>
       <c r="R9">
-        <v>2689.476698495681</v>
+        <v>10.339172063672</v>
       </c>
       <c r="S9">
-        <v>0.1803463117957073</v>
+        <v>6.468879830660379E-05</v>
       </c>
       <c r="T9">
-        <v>0.1803463117957073</v>
+        <v>7.85821994511015E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J10">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>21.79504765702311</v>
+        <v>1996.050751779183</v>
       </c>
       <c r="R10">
-        <v>21.79504765702311</v>
+        <v>17964.45676601264</v>
       </c>
       <c r="S10">
-        <v>0.001461494893246089</v>
+        <v>0.1123976961857013</v>
       </c>
       <c r="T10">
-        <v>0.001461494893246089</v>
+        <v>0.1365376759303229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J11">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>52.43239936744569</v>
+        <v>2863.905560592248</v>
       </c>
       <c r="R11">
-        <v>52.43239936744569</v>
+        <v>25775.15004533023</v>
       </c>
       <c r="S11">
-        <v>0.003515921833346789</v>
+        <v>0.1612666345367548</v>
       </c>
       <c r="T11">
-        <v>0.003515921833346789</v>
+        <v>0.1959023381437812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.3754881881135</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
-        <v>2.3754881881135</v>
+        <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.01841858423257366</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J12">
-        <v>0.01841858423257366</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>0.6992309394963709</v>
+        <v>24.80471254618311</v>
       </c>
       <c r="R12">
-        <v>0.6992309394963709</v>
+        <v>223.242412915648</v>
       </c>
       <c r="S12">
-        <v>4.688782806787362E-05</v>
+        <v>0.001396754337160246</v>
       </c>
       <c r="T12">
-        <v>4.688782806787362E-05</v>
+        <v>0.001696739323965964</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.3754881881135</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
-        <v>2.3754881881135</v>
+        <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.01841858423257366</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J13">
-        <v>0.01841858423257366</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>102.0890826515206</v>
+        <v>56.01038550081466</v>
       </c>
       <c r="R13">
-        <v>102.0890826515206</v>
+        <v>336.062313004888</v>
       </c>
       <c r="S13">
-        <v>0.006845714462262123</v>
+        <v>0.00315394700618365</v>
       </c>
       <c r="T13">
-        <v>0.006845714462262123</v>
+        <v>0.002554219578310172</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H14">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I14">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J14">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>167.2687038412149</v>
+        <v>1.588549271800334</v>
       </c>
       <c r="R14">
-        <v>167.2687038412149</v>
+        <v>9.531295630802001</v>
       </c>
       <c r="S14">
-        <v>0.0112164176151757</v>
+        <v>8.945127185202121E-05</v>
       </c>
       <c r="T14">
-        <v>0.0112164176151757</v>
+        <v>7.244198758610158E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H15">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I15">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J15">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>1.355516251093341</v>
+        <v>0.1423318543814444</v>
       </c>
       <c r="R15">
-        <v>1.355516251093341</v>
+        <v>1.280986689433</v>
       </c>
       <c r="S15">
-        <v>9.089588193887843E-05</v>
+        <v>8.014712307316554E-06</v>
       </c>
       <c r="T15">
-        <v>9.089588193887843E-05</v>
+        <v>9.736055353689456E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H16">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I16">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J16">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>3.260968755142259</v>
+        <v>247.3035973011719</v>
       </c>
       <c r="R16">
-        <v>3.260968755142259</v>
+        <v>2225.732375710546</v>
       </c>
       <c r="S16">
-        <v>0.0002186684451290812</v>
+        <v>0.01392567527168927</v>
       </c>
       <c r="T16">
-        <v>0.0002186684451290812</v>
+        <v>0.01691653300629399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.1916422859751</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H17">
-        <v>12.1916422859751</v>
+        <v>15.021127</v>
       </c>
       <c r="I17">
-        <v>0.09452911258462977</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J17">
-        <v>0.09452911258462977</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>3.588640655963868</v>
+        <v>354.8277251136971</v>
       </c>
       <c r="R17">
-        <v>3.588640655963868</v>
+        <v>3193.449526023273</v>
       </c>
       <c r="S17">
-        <v>0.0002406409049854241</v>
+        <v>0.0199803631295668</v>
       </c>
       <c r="T17">
-        <v>0.0002406409049854241</v>
+        <v>0.02427160376532713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.1916422859751</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H18">
-        <v>12.1916422859751</v>
+        <v>15.021127</v>
       </c>
       <c r="I18">
-        <v>0.09452911258462977</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J18">
-        <v>0.09452911258462977</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>523.948543806111</v>
+        <v>3.073215767296889</v>
       </c>
       <c r="R18">
-        <v>523.948543806111</v>
+        <v>27.658941905672</v>
       </c>
       <c r="S18">
-        <v>0.03513404206067913</v>
+        <v>0.0001730529004925601</v>
       </c>
       <c r="T18">
-        <v>0.03513404206067913</v>
+        <v>0.0002102199746800634</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.1916422859751</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H19">
-        <v>12.1916422859751</v>
+        <v>15.021127</v>
       </c>
       <c r="I19">
-        <v>0.09452911258462977</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J19">
-        <v>0.09452911258462977</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>858.4678354011519</v>
+        <v>6.939487790192834</v>
       </c>
       <c r="R19">
-        <v>858.4678354011519</v>
+        <v>41.636926741157</v>
       </c>
       <c r="S19">
-        <v>0.05756566249353979</v>
+        <v>0.000390762829868549</v>
       </c>
       <c r="T19">
-        <v>0.05756566249353979</v>
+        <v>0.000316458732048847</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H20">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I20">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J20">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>6.956872835170844</v>
+        <v>3.972679086886001</v>
       </c>
       <c r="R20">
-        <v>6.956872835170844</v>
+        <v>23.836074521316</v>
       </c>
       <c r="S20">
-        <v>0.0004665020366811786</v>
+        <v>0.0002237017153261739</v>
       </c>
       <c r="T20">
-        <v>0.0004665020366811786</v>
+        <v>0.0001811645217460611</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H21">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I21">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J21">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>16.73616596679805</v>
+        <v>0.3559466434793334</v>
       </c>
       <c r="R21">
-        <v>16.73616596679805</v>
+        <v>3.203519791314</v>
       </c>
       <c r="S21">
-        <v>0.001122265088744257</v>
+        <v>2.004336946665782E-05</v>
       </c>
       <c r="T21">
-        <v>0.001122265088744257</v>
+        <v>2.434814215647955E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.84609739952954</v>
+        <v>12.521722</v>
       </c>
       <c r="H22">
-        <v>9.84609739952954</v>
+        <v>37.565166</v>
       </c>
       <c r="I22">
-        <v>0.07634269672348057</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J22">
-        <v>0.07634269672348057</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>2.898223602834798</v>
+        <v>618.4622954732807</v>
       </c>
       <c r="R22">
-        <v>2.898223602834798</v>
+        <v>5566.160659259525</v>
       </c>
       <c r="S22">
-        <v>0.0001943441033799914</v>
+        <v>0.03482563613523157</v>
       </c>
       <c r="T22">
-        <v>0.0001943441033799914</v>
+        <v>0.0423052391825136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.84609739952954</v>
+        <v>12.521722</v>
       </c>
       <c r="H23">
-        <v>9.84609739952954</v>
+        <v>37.565166</v>
       </c>
       <c r="I23">
-        <v>0.07634269672348057</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J23">
-        <v>0.07634269672348057</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>423.1463057763124</v>
+        <v>887.3610079522263</v>
       </c>
       <c r="R23">
-        <v>423.1463057763124</v>
+        <v>7986.249071570036</v>
       </c>
       <c r="S23">
-        <v>0.02837461861611257</v>
+        <v>0.04996733319027636</v>
       </c>
       <c r="T23">
-        <v>0.02837461861611257</v>
+        <v>0.06069896250332874</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.84609739952954</v>
+        <v>12.521722</v>
       </c>
       <c r="H24">
-        <v>9.84609739952954</v>
+        <v>37.565166</v>
       </c>
       <c r="I24">
-        <v>0.07634269672348057</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J24">
-        <v>0.07634269672348057</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>693.3075727989989</v>
+        <v>7.685565833530668</v>
       </c>
       <c r="R24">
-        <v>693.3075727989989</v>
+        <v>69.17009250177601</v>
       </c>
       <c r="S24">
-        <v>0.04649062911170415</v>
+        <v>0.0004327745137754646</v>
       </c>
       <c r="T24">
-        <v>0.04649062911170415</v>
+        <v>0.000525722753384109</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.84609739952954</v>
+        <v>12.521722</v>
       </c>
       <c r="H25">
-        <v>9.84609739952954</v>
+        <v>37.565166</v>
       </c>
       <c r="I25">
-        <v>0.07634269672348057</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J25">
-        <v>0.07634269672348057</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>5.618443022235934</v>
+        <v>17.354424258151</v>
       </c>
       <c r="R25">
-        <v>5.618443022235934</v>
+        <v>104.126545548906</v>
       </c>
       <c r="S25">
-        <v>0.0003767519077824072</v>
+        <v>0.0009772283112073948</v>
       </c>
       <c r="T25">
-        <v>0.0003767519077824072</v>
+        <v>0.000791406983082192</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H26">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I26">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J26">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3727573016189</v>
+        <v>0.317263</v>
       </c>
       <c r="N26">
-        <v>1.3727573016189</v>
+        <v>0.634526</v>
       </c>
       <c r="O26">
-        <v>0.01187216359129066</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P26">
-        <v>0.01187216359129066</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q26">
-        <v>13.51630209765504</v>
+        <v>3.725629984433334</v>
       </c>
       <c r="R26">
-        <v>13.51630209765504</v>
+        <v>22.3537799066</v>
       </c>
       <c r="S26">
-        <v>0.0009063529845014505</v>
+        <v>0.0002097903706693939</v>
       </c>
       <c r="T26">
-        <v>0.0009063529845014505</v>
+        <v>0.0001698984387036693</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.5855359119143</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H27">
-        <v>51.5855359119143</v>
+        <v>35.2291</v>
       </c>
       <c r="I27">
-        <v>0.3999735899047333</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J27">
-        <v>0.3999735899047333</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.294352522144792</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N27">
-        <v>0.294352522144792</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.002545680356091186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P27">
-        <v>0.002545680356091186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q27">
-        <v>15.18433260186272</v>
+        <v>0.3338113798777778</v>
       </c>
       <c r="R27">
-        <v>15.18433260186272</v>
+        <v>3.0043024189</v>
       </c>
       <c r="S27">
-        <v>0.001018204910775751</v>
+        <v>1.879693190435615E-05</v>
       </c>
       <c r="T27">
-        <v>0.001018204910775751</v>
+        <v>2.283400357780486E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.5855359119143</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H28">
-        <v>51.5855359119143</v>
+        <v>35.2291</v>
       </c>
       <c r="I28">
-        <v>0.3999735899047333</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J28">
-        <v>0.3999735899047333</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.976043056057</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N28">
-        <v>42.976043056057</v>
+        <v>148.173461</v>
       </c>
       <c r="O28">
-        <v>0.3716743032917443</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P28">
-        <v>0.3716743032917443</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q28">
-        <v>2216.942212420204</v>
+        <v>580.0019638794555</v>
       </c>
       <c r="R28">
-        <v>2216.942212420204</v>
+        <v>5220.0176749151</v>
       </c>
       <c r="S28">
-        <v>0.1486599053629396</v>
+        <v>0.03265993335346067</v>
       </c>
       <c r="T28">
-        <v>0.1486599053629396</v>
+        <v>0.03967440212255923</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.5855359119143</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H29">
-        <v>51.5855359119143</v>
+        <v>35.2291</v>
       </c>
       <c r="I29">
-        <v>0.3999735899047333</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J29">
-        <v>0.3999735899047333</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.4144540386251</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N29">
-        <v>70.4144540386251</v>
+        <v>212.597199</v>
       </c>
       <c r="O29">
-        <v>0.6089728435988707</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P29">
-        <v>0.6089728435988707</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q29">
-        <v>3632.367347527334</v>
+        <v>832.1786648101001</v>
       </c>
       <c r="R29">
-        <v>3632.367347527334</v>
+        <v>7489.607983290901</v>
       </c>
       <c r="S29">
-        <v>0.243573054408734</v>
+        <v>0.04686001328181445</v>
       </c>
       <c r="T29">
-        <v>0.243573054408734</v>
+        <v>0.05692427447082275</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.5855359119143</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H30">
-        <v>51.5855359119143</v>
+        <v>35.2291</v>
       </c>
       <c r="I30">
-        <v>0.3999735899047333</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J30">
-        <v>0.3999735899047333</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.570626390767208</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N30">
-        <v>0.570626390767208</v>
+        <v>1.841336</v>
       </c>
       <c r="O30">
-        <v>0.004935009162003186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P30">
-        <v>0.004935009162003186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q30">
-        <v>29.43606817320785</v>
+        <v>7.207623341955557</v>
       </c>
       <c r="R30">
-        <v>29.43606817320785</v>
+        <v>64.86861007760001</v>
       </c>
       <c r="S30">
-        <v>0.001973873330739164</v>
+        <v>0.0004058615533137061</v>
       </c>
       <c r="T30">
-        <v>0.001973873330739164</v>
+        <v>0.0004930296182171566</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.5855359119143</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H31">
-        <v>51.5855359119143</v>
+        <v>35.2291</v>
       </c>
       <c r="I31">
-        <v>0.3999735899047333</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J31">
-        <v>0.3999735899047333</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.3727573016189</v>
+        <v>1.3859455</v>
       </c>
       <c r="N31">
-        <v>1.3727573016189</v>
+        <v>2.771891</v>
       </c>
       <c r="O31">
-        <v>0.01187216359129066</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P31">
-        <v>0.01187216359129066</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q31">
-        <v>70.81442108100434</v>
+        <v>16.27520420468334</v>
       </c>
       <c r="R31">
-        <v>70.81442108100434</v>
+        <v>97.65122522810002</v>
       </c>
       <c r="S31">
-        <v>0.004748551891544795</v>
+        <v>0.0009164573876329052</v>
       </c>
       <c r="T31">
-        <v>0.004748551891544795</v>
+        <v>0.0007421917354950821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>60.1916805</v>
+      </c>
+      <c r="H32">
+        <v>120.383361</v>
+      </c>
+      <c r="I32">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J32">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>19.0965931304715</v>
+      </c>
+      <c r="R32">
+        <v>76.386372521886</v>
+      </c>
+      <c r="S32">
+        <v>0.001075329908794893</v>
+      </c>
+      <c r="T32">
+        <v>0.0005805696165896995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>60.1916805</v>
+      </c>
+      <c r="H33">
+        <v>120.383361</v>
+      </c>
+      <c r="I33">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J33">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>1.7110287737865</v>
+      </c>
+      <c r="R33">
+        <v>10.266172642719</v>
+      </c>
+      <c r="S33">
+        <v>9.634809741667501E-05</v>
+      </c>
+      <c r="T33">
+        <v>7.802737213786824E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>60.1916805</v>
+      </c>
+      <c r="H34">
+        <v>120.383361</v>
+      </c>
+      <c r="I34">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J34">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>2972.936541030403</v>
+      </c>
+      <c r="R34">
+        <v>17837.61924618242</v>
+      </c>
+      <c r="S34">
+        <v>0.1674061733251316</v>
+      </c>
+      <c r="T34">
+        <v>0.135573655676109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>60.1916805</v>
+      </c>
+      <c r="H35">
+        <v>120.383361</v>
+      </c>
+      <c r="I35">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J35">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>4265.527559134307</v>
+      </c>
+      <c r="R35">
+        <v>25593.16535480584</v>
+      </c>
+      <c r="S35">
+        <v>0.2401920242939557</v>
+      </c>
+      <c r="T35">
+        <v>0.1945191754340627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>60.1916805</v>
+      </c>
+      <c r="H36">
+        <v>120.383361</v>
+      </c>
+      <c r="I36">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J36">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>36.944369401716</v>
+      </c>
+      <c r="R36">
+        <v>221.666216410296</v>
+      </c>
+      <c r="S36">
+        <v>0.002080338891225633</v>
+      </c>
+      <c r="T36">
+        <v>0.001684759545759844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>60.1916805</v>
+      </c>
+      <c r="H37">
+        <v>120.383361</v>
+      </c>
+      <c r="I37">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J37">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>83.42238872641275</v>
+      </c>
+      <c r="R37">
+        <v>333.689554905651</v>
+      </c>
+      <c r="S37">
+        <v>0.004697517983848393</v>
+      </c>
+      <c r="T37">
+        <v>0.002536185585930976</v>
       </c>
     </row>
   </sheetData>
